--- a/Table 2. Pairwise perMANOVA results.xlsx
+++ b/Table 2. Pairwise perMANOVA results.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horto\Documents\Grad School\Central Michigan\Dissertation\Great Lakes Coastal Wetlands\Stats\Final figs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horto\Dropbox\Great Lakes\Manuscript\Submission\Figures and Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>pairs</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>BA vs ESBT</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>BA vs LE</t>
@@ -548,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,426 +556,262 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>6.2937029999999998</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="D2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>19.563267</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>7.742667</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>6.2937029999999998</v>
-      </c>
-      <c r="C3">
-        <v>0.16017079000000001</v>
-      </c>
-      <c r="D3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E3">
-        <v>0.03</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>19.563267</v>
-      </c>
-      <c r="C4">
-        <v>0.50730315999999998</v>
-      </c>
-      <c r="D4">
-        <v>1E-3</v>
-      </c>
-      <c r="E4">
-        <v>0.01</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>7.742667</v>
-      </c>
-      <c r="C5">
-        <v>0.26032187000000001</v>
-      </c>
-      <c r="D5">
-        <v>2E-3</v>
-      </c>
-      <c r="E5">
-        <v>0.02</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
+        <v>3.2398220000000002</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>3.2398220000000002</v>
-      </c>
-      <c r="C6">
-        <v>0.14567663</v>
-      </c>
-      <c r="D6">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.19</v>
-      </c>
-      <c r="G6" s="4" t="s">
+        <v>24.145668000000001</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>24.145668000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.40145315999999998</v>
-      </c>
-      <c r="D7">
-        <v>1E-3</v>
-      </c>
-      <c r="E7">
-        <v>0.01</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2.2822659999999999</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>2.2822659999999999</v>
-      </c>
-      <c r="C8">
-        <v>5.5284430000000002E-2</v>
-      </c>
-      <c r="D8">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.59</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>3.4240189999999999</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>3.4240189999999999</v>
-      </c>
-      <c r="C9">
-        <v>8.6851090000000006E-2</v>
-      </c>
-      <c r="D9">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.23</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27.525148999999999</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>27.525148999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.52403752999999997</v>
-      </c>
-      <c r="D10">
-        <v>1E-3</v>
-      </c>
-      <c r="E10">
-        <v>0.01</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>16.928563</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11">
-        <v>16.928563</v>
-      </c>
-      <c r="C11">
-        <v>0.43486226</v>
-      </c>
-      <c r="D11">
-        <v>1E-3</v>
-      </c>
-      <c r="E11">
-        <v>0.01</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="1" t="s">
+        <v>5.062837</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>5.062837</v>
-      </c>
-      <c r="C12">
-        <v>0.16840849999999999</v>
-      </c>
-      <c r="D12">
-        <v>2E-3</v>
-      </c>
-      <c r="E12">
-        <v>0.02</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>6.3325469999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15">
-        <v>6.3325469999999999</v>
-      </c>
-      <c r="C15">
-        <v>0.11655163</v>
-      </c>
-      <c r="D15">
-        <v>1E-3</v>
-      </c>
-      <c r="E15">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12.263033999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>12.263033999999999</v>
-      </c>
-      <c r="C16">
-        <v>0.20692552</v>
-      </c>
-      <c r="D16">
-        <v>1E-3</v>
-      </c>
-      <c r="E16">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
         <v>1.881964</v>
-      </c>
-      <c r="C17">
-        <v>3.850017E-2</v>
-      </c>
-      <c r="D17">
-        <v>0.104</v>
-      </c>
-      <c r="E17">
-        <v>0.312</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +852,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>6.3325469999999999</v>
@@ -1034,12 +867,12 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>12.263033999999999</v>
@@ -1054,12 +887,12 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>1.881964</v>
